--- a/ТСП/л1.xlsx
+++ b/ТСП/л1.xlsx
@@ -749,13 +749,15 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="65930752"/>
-        <c:axId val="65901696"/>
+        <c:axId val="121789440"/>
+        <c:axId val="121820672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="65930752"/>
+        <c:axId val="121789440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="105"/>
+          <c:min val="70"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:title>
@@ -782,12 +784,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65901696"/>
+        <c:crossAx val="121820672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="65901696"/>
+        <c:axId val="121820672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -812,7 +814,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65930752"/>
+        <c:crossAx val="121789440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -821,7 +823,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -940,11 +942,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="106616320"/>
-        <c:axId val="92598272"/>
+        <c:axId val="133334144"/>
+        <c:axId val="133336064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106616320"/>
+        <c:axId val="133334144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -969,14 +971,16 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92598272"/>
+        <c:crossAx val="133336064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92598272"/>
+        <c:axId val="133336064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="180"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:title>
@@ -999,7 +1003,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106616320"/>
+        <c:crossAx val="133334144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1008,7 +1012,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1201,13 +1205,15 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="133019904"/>
-        <c:axId val="133029248"/>
+        <c:axId val="133361024"/>
+        <c:axId val="133375488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="133019904"/>
+        <c:axId val="133361024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="115"/>
+          <c:min val="60"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:title>
@@ -1234,12 +1240,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133029248"/>
+        <c:crossAx val="133375488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="133029248"/>
+        <c:axId val="133375488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1264,7 +1270,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133019904"/>
+        <c:crossAx val="133361024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1277,7 +1283,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1311,23 +1317,25 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1208121901428988"/>
+          <c:x val="0.12081219014289879"/>
           <c:y val="0.27617193918175958"/>
-          <c:w val="0.69264253426654998"/>
-          <c:h val="0.55285954424236294"/>
+          <c:w val="0.69264253426655009"/>
+          <c:h val="0.55285954424236283"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>y</c:v>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
           <c:xVal>
             <c:numRef>
               <c:f>Лист1!$C$3:$C$12</c:f>
@@ -1406,8 +1414,12 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
         </c:ser>
+        <c:axId val="133452160"/>
+        <c:axId val="133454080"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -1415,6 +1427,13 @@
             <c:v>Yр</c:v>
           </c:tx>
           <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
             <c:trendlineType val="linear"/>
           </c:trendline>
           <c:xVal>
@@ -1503,22 +1522,11 @@
           <c:tx>
             <c:v>Ymin</c:v>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-          </c:trendline>
-          <c:trendline>
-            <c:trendlineType val="exp"/>
-          </c:trendline>
           <c:trendline>
             <c:spPr>
               <a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="00B050"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
@@ -1574,31 +1582,31 @@
                   <c:v>121.38022463680312</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>126.43500734933855</c:v>
+                  <c:v>119.32742526423183</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>144.6387078010614</c:v>
+                  <c:v>136.81114103799743</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>139.30889252216269</c:v>
+                  <c:v>131.66113418921833</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>153.25641842234199</c:v>
+                  <c:v>145.06279924838981</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>150.03784909358154</c:v>
+                  <c:v>141.96683462703464</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>151.11070553650171</c:v>
+                  <c:v>142.9986169397186</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>122.143581577658</c:v>
+                  <c:v>115.22556917776065</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>130.72643312101911</c:v>
+                  <c:v>123.43420776603136</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>130.72643312101911</c:v>
+                  <c:v>123.43420776603136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1611,19 +1619,14 @@
           <c:tx>
             <c:v>Ymax</c:v>
           </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="F79646">
-                  <a:lumMod val="75000"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
           </c:trendline>
@@ -1676,44 +1679,45 @@
                   <c:v>135.78121583355454</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>126.43500734933855</c:v>
+                  <c:v>133.54258943444526</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>144.70842595690033</c:v>
+                  <c:v>152.5359927199643</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>139.30967680659768</c:v>
+                  <c:v>146.95743513954204</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>153.25641842234199</c:v>
+                  <c:v>161.45003759629418</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>150.03784909358154</c:v>
+                  <c:v>158.10886356012844</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>151.11070553650171</c:v>
+                  <c:v>159.22279413328482</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>122.143581577658</c:v>
+                  <c:v>129.06159397755536</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>130.72643312101911</c:v>
+                  <c:v>138.01865847600686</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>130.72643312101911</c:v>
+                  <c:v>138.01865847600686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="81224832"/>
-        <c:axId val="65412480"/>
+        <c:axId val="133452160"/>
+        <c:axId val="133454080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81224832"/>
+        <c:axId val="133452160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="103"/>
           <c:min val="70"/>
         </c:scaling>
         <c:axPos val="b"/>
@@ -1737,16 +1741,16 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65412480"/>
+        <c:crossAx val="133454080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="65412480"/>
+        <c:axId val="133454080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="165"/>
-          <c:min val="110"/>
+          <c:min val="118"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -1770,28 +1774,30 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81224832"/>
+        <c:crossAx val="133452160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:legendEntry>
-        <c:idx val="5"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="6"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80973415132924342"/>
+          <c:y val="0.37539262648348731"/>
+          <c:w val="0.1834492160872529"/>
+          <c:h val="0.40635760417588251"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1831,16 +1837,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1862,15 +1868,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
+      <xdr:colOff>298450</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
+      <xdr:colOff>298450</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1904,7 +1910,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2214,8 +2220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2652,8 +2658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2812,11 +2818,11 @@
         <v>3.1224989991991992</v>
       </c>
       <c r="L3" s="1">
-        <f>G3-K3*J25</f>
+        <f>G3-K3*$J$25</f>
         <v>121.38022463680312</v>
       </c>
       <c r="M3" s="6">
-        <f>G3+K3*J25</f>
+        <f>G3+K3*$J$25</f>
         <v>135.78121583355454</v>
       </c>
       <c r="N3">
@@ -2882,12 +2888,12 @@
         <v>3.082207001484488</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" ref="L4:L12" si="8">G4-K4*J26</f>
-        <v>126.43500734933855</v>
+        <f t="shared" ref="L4:L12" si="8">G4-K4*$J$25</f>
+        <v>119.32742526423183</v>
       </c>
       <c r="M4" s="6">
-        <f t="shared" ref="M4:M12" si="9">G4+K4*J26</f>
-        <v>126.43500734933855</v>
+        <f t="shared" ref="M4:M12" si="9">G4+K4*$J$25</f>
+        <v>133.54258943444526</v>
       </c>
       <c r="N4">
         <v>125.18334149926505</v>
@@ -2949,11 +2955,11 @@
       </c>
       <c r="L5" s="1">
         <f t="shared" si="8"/>
-        <v>144.6387078010614</v>
+        <v>136.81114103799743</v>
       </c>
       <c r="M5" s="6">
         <f t="shared" si="9"/>
-        <v>144.70842595690033</v>
+        <v>152.5359927199643</v>
       </c>
       <c r="N5">
         <v>145.44840764331209</v>
@@ -3019,11 +3025,11 @@
       </c>
       <c r="L6" s="1">
         <f t="shared" si="8"/>
-        <v>139.30889252216269</v>
+        <v>131.66113418921833</v>
       </c>
       <c r="M6" s="6">
         <f t="shared" si="9"/>
-        <v>139.30967680659768</v>
+        <v>146.95743513954204</v>
       </c>
       <c r="N6">
         <v>139.48809407153357</v>
@@ -3085,11 +3091,11 @@
       </c>
       <c r="L7" s="1">
         <f t="shared" si="8"/>
-        <v>153.25641842234199</v>
+        <v>145.06279924838981</v>
       </c>
       <c r="M7" s="6">
         <f t="shared" si="9"/>
-        <v>153.25641842234199</v>
+        <v>161.45003759629418</v>
       </c>
       <c r="N7">
         <v>154.98490935815775</v>
@@ -3139,11 +3145,11 @@
       </c>
       <c r="L8" s="1">
         <f t="shared" si="8"/>
-        <v>150.03784909358154</v>
+        <v>141.96683462703464</v>
       </c>
       <c r="M8" s="6">
         <f t="shared" si="9"/>
-        <v>150.03784909358154</v>
+        <v>158.10886356012844</v>
       </c>
       <c r="N8">
         <v>151.40872121509062</v>
@@ -3193,11 +3199,11 @@
       </c>
       <c r="L9" s="1">
         <f t="shared" si="8"/>
-        <v>151.11070553650171</v>
+        <v>142.9986169397186</v>
       </c>
       <c r="M9" s="6">
         <f t="shared" si="9"/>
-        <v>151.11070553650171</v>
+        <v>159.22279413328482</v>
       </c>
       <c r="N9">
         <v>152.60078392944632</v>
@@ -3247,11 +3253,11 @@
       </c>
       <c r="L10" s="1">
         <f t="shared" si="8"/>
-        <v>122.143581577658</v>
+        <v>115.22556917776065</v>
       </c>
       <c r="M10" s="6">
         <f t="shared" si="9"/>
-        <v>122.143581577658</v>
+        <v>129.06159397755536</v>
       </c>
       <c r="N10">
         <v>120.41509064184223</v>
@@ -3301,11 +3307,11 @@
       </c>
       <c r="L11" s="1">
         <f t="shared" si="8"/>
-        <v>130.72643312101911</v>
+        <v>123.43420776603136</v>
       </c>
       <c r="M11" s="6">
         <f t="shared" si="9"/>
-        <v>130.72643312101911</v>
+        <v>138.01865847600686</v>
       </c>
       <c r="N11">
         <v>129.95159235668788</v>
@@ -3355,11 +3361,11 @@
       </c>
       <c r="L12" s="1">
         <f t="shared" si="8"/>
-        <v>130.72643312101911</v>
+        <v>123.43420776603136</v>
       </c>
       <c r="M12" s="6">
         <f t="shared" si="9"/>
-        <v>130.72643312101911</v>
+        <v>138.01865847600686</v>
       </c>
       <c r="N12">
         <v>129.95159235668788</v>
